--- a/sagol_project/Merged_dataset.xlsx
+++ b/sagol_project/Merged_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EJ62"/>
+  <dimension ref="A1:EB62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1094,46 +1094,6 @@
           <t>pctTrialsExcludedR</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>msOffscreen-a_a</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>msOffscreen-a_c</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>msOffscreen-d_a</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>msOffscreen-d_c</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>msOnBackground-a_a</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>msOnBackground-a_c</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>msOnBackground-d_a</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>msOnBackground-d_c</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1536,30 +1496,6 @@
       <c r="EB2" t="n">
         <v>1.7</v>
       </c>
-      <c r="EC2" t="n">
-        <v>2312</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>3036</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>5256</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>5470</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>6832</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>7184</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>9926</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>13116</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1962,30 +1898,6 @@
       <c r="EB3" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="EC3" t="n">
-        <v>1602</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>1708</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>1657</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>2599</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>14201</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>11964</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>13306</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>20172</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2388,30 +2300,6 @@
       <c r="EB4" t="n">
         <v>0</v>
       </c>
-      <c r="EC4" t="n">
-        <v>1244</v>
-      </c>
-      <c r="ED4" t="n">
-        <v>2540</v>
-      </c>
-      <c r="EE4" t="n">
-        <v>1018</v>
-      </c>
-      <c r="EF4" t="n">
-        <v>1896</v>
-      </c>
-      <c r="EG4" t="n">
-        <v>2656</v>
-      </c>
-      <c r="EH4" t="n">
-        <v>5278</v>
-      </c>
-      <c r="EI4" t="n">
-        <v>2106</v>
-      </c>
-      <c r="EJ4" t="n">
-        <v>6338</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2814,30 +2702,6 @@
       <c r="EB5" t="n">
         <v>25.8</v>
       </c>
-      <c r="EC5" t="n">
-        <v>3958</v>
-      </c>
-      <c r="ED5" t="n">
-        <v>4836</v>
-      </c>
-      <c r="EE5" t="n">
-        <v>7060</v>
-      </c>
-      <c r="EF5" t="n">
-        <v>9704</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>10034</v>
-      </c>
-      <c r="EH5" t="n">
-        <v>9892</v>
-      </c>
-      <c r="EI5" t="n">
-        <v>13488</v>
-      </c>
-      <c r="EJ5" t="n">
-        <v>16456</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3240,30 +3104,6 @@
       <c r="EB6" t="n">
         <v>2.5</v>
       </c>
-      <c r="EC6" t="n">
-        <v>994</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>1070</v>
-      </c>
-      <c r="EE6" t="n">
-        <v>1206</v>
-      </c>
-      <c r="EF6" t="n">
-        <v>1924</v>
-      </c>
-      <c r="EG6" t="n">
-        <v>34154</v>
-      </c>
-      <c r="EH6" t="n">
-        <v>38402</v>
-      </c>
-      <c r="EI6" t="n">
-        <v>49746</v>
-      </c>
-      <c r="EJ6" t="n">
-        <v>41616</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3666,30 +3506,6 @@
       <c r="EB7" t="n">
         <v>0</v>
       </c>
-      <c r="EC7" t="n">
-        <v>792</v>
-      </c>
-      <c r="ED7" t="n">
-        <v>1952</v>
-      </c>
-      <c r="EE7" t="n">
-        <v>1308</v>
-      </c>
-      <c r="EF7" t="n">
-        <v>1118</v>
-      </c>
-      <c r="EG7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="EH7" t="n">
-        <v>2886</v>
-      </c>
-      <c r="EI7" t="n">
-        <v>2090</v>
-      </c>
-      <c r="EJ7" t="n">
-        <v>4116</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -4092,30 +3908,6 @@
       <c r="EB8" t="n">
         <v>0</v>
       </c>
-      <c r="EC8" t="n">
-        <v>19</v>
-      </c>
-      <c r="ED8" t="n">
-        <v>637</v>
-      </c>
-      <c r="EE8" t="n">
-        <v>95</v>
-      </c>
-      <c r="EF8" t="n">
-        <v>86</v>
-      </c>
-      <c r="EG8" t="n">
-        <v>73</v>
-      </c>
-      <c r="EH8" t="n">
-        <v>1369</v>
-      </c>
-      <c r="EI8" t="n">
-        <v>3061</v>
-      </c>
-      <c r="EJ8" t="n">
-        <v>247</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4518,30 +4310,6 @@
       <c r="EB9" t="n">
         <v>0</v>
       </c>
-      <c r="EC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED9" t="n">
-        <v>196</v>
-      </c>
-      <c r="EE9" t="n">
-        <v>432</v>
-      </c>
-      <c r="EF9" t="n">
-        <v>294</v>
-      </c>
-      <c r="EG9" t="n">
-        <v>22</v>
-      </c>
-      <c r="EH9" t="n">
-        <v>2822</v>
-      </c>
-      <c r="EI9" t="n">
-        <v>3268</v>
-      </c>
-      <c r="EJ9" t="n">
-        <v>2384</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4944,30 +4712,6 @@
       <c r="EB10" t="n">
         <v>4.2</v>
       </c>
-      <c r="EC10" t="n">
-        <v>5430</v>
-      </c>
-      <c r="ED10" t="n">
-        <v>1705</v>
-      </c>
-      <c r="EE10" t="n">
-        <v>2376</v>
-      </c>
-      <c r="EF10" t="n">
-        <v>1389</v>
-      </c>
-      <c r="EG10" t="n">
-        <v>8807</v>
-      </c>
-      <c r="EH10" t="n">
-        <v>7431</v>
-      </c>
-      <c r="EI10" t="n">
-        <v>6769</v>
-      </c>
-      <c r="EJ10" t="n">
-        <v>4882</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -5370,30 +5114,6 @@
       <c r="EB11" t="n">
         <v>0</v>
       </c>
-      <c r="EC11" t="n">
-        <v>1924</v>
-      </c>
-      <c r="ED11" t="n">
-        <v>624</v>
-      </c>
-      <c r="EE11" t="n">
-        <v>1417</v>
-      </c>
-      <c r="EF11" t="n">
-        <v>1056</v>
-      </c>
-      <c r="EG11" t="n">
-        <v>3448</v>
-      </c>
-      <c r="EH11" t="n">
-        <v>1912</v>
-      </c>
-      <c r="EI11" t="n">
-        <v>1858</v>
-      </c>
-      <c r="EJ11" t="n">
-        <v>1326</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -5796,30 +5516,6 @@
       <c r="EB12" t="n">
         <v>0</v>
       </c>
-      <c r="EC12" t="n">
-        <v>782</v>
-      </c>
-      <c r="ED12" t="n">
-        <v>857</v>
-      </c>
-      <c r="EE12" t="n">
-        <v>1287</v>
-      </c>
-      <c r="EF12" t="n">
-        <v>1433</v>
-      </c>
-      <c r="EG12" t="n">
-        <v>1654</v>
-      </c>
-      <c r="EH12" t="n">
-        <v>1418</v>
-      </c>
-      <c r="EI12" t="n">
-        <v>2401</v>
-      </c>
-      <c r="EJ12" t="n">
-        <v>2605</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -6222,30 +5918,6 @@
       <c r="EB13" t="n">
         <v>0.8</v>
       </c>
-      <c r="EC13" t="n">
-        <v>876</v>
-      </c>
-      <c r="ED13" t="n">
-        <v>349</v>
-      </c>
-      <c r="EE13" t="n">
-        <v>2292</v>
-      </c>
-      <c r="EF13" t="n">
-        <v>1697</v>
-      </c>
-      <c r="EG13" t="n">
-        <v>1869</v>
-      </c>
-      <c r="EH13" t="n">
-        <v>1568</v>
-      </c>
-      <c r="EI13" t="n">
-        <v>3977</v>
-      </c>
-      <c r="EJ13" t="n">
-        <v>3570</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -6648,30 +6320,6 @@
       <c r="EB14" t="n">
         <v>14.2</v>
       </c>
-      <c r="EC14" t="n">
-        <v>4096</v>
-      </c>
-      <c r="ED14" t="n">
-        <v>11156</v>
-      </c>
-      <c r="EE14" t="n">
-        <v>10898</v>
-      </c>
-      <c r="EF14" t="n">
-        <v>14810</v>
-      </c>
-      <c r="EG14" t="n">
-        <v>16718</v>
-      </c>
-      <c r="EH14" t="n">
-        <v>26690</v>
-      </c>
-      <c r="EI14" t="n">
-        <v>31968</v>
-      </c>
-      <c r="EJ14" t="n">
-        <v>28700</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -7074,30 +6722,6 @@
       <c r="EB15" t="n">
         <v>5</v>
       </c>
-      <c r="EC15" t="n">
-        <v>6896</v>
-      </c>
-      <c r="ED15" t="n">
-        <v>4014</v>
-      </c>
-      <c r="EE15" t="n">
-        <v>4006</v>
-      </c>
-      <c r="EF15" t="n">
-        <v>3292</v>
-      </c>
-      <c r="EG15" t="n">
-        <v>10382</v>
-      </c>
-      <c r="EH15" t="n">
-        <v>7582</v>
-      </c>
-      <c r="EI15" t="n">
-        <v>9898</v>
-      </c>
-      <c r="EJ15" t="n">
-        <v>8392</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -7500,30 +7124,6 @@
       <c r="EB16" t="n">
         <v>6.7</v>
       </c>
-      <c r="EC16" t="n">
-        <v>410</v>
-      </c>
-      <c r="ED16" t="n">
-        <v>284</v>
-      </c>
-      <c r="EE16" t="n">
-        <v>618</v>
-      </c>
-      <c r="EF16" t="n">
-        <v>234</v>
-      </c>
-      <c r="EG16" t="n">
-        <v>3198</v>
-      </c>
-      <c r="EH16" t="n">
-        <v>5892</v>
-      </c>
-      <c r="EI16" t="n">
-        <v>5438</v>
-      </c>
-      <c r="EJ16" t="n">
-        <v>11050</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -7926,30 +7526,6 @@
       <c r="EB17" t="n">
         <v>0</v>
       </c>
-      <c r="EC17" t="n">
-        <v>1430</v>
-      </c>
-      <c r="ED17" t="n">
-        <v>562</v>
-      </c>
-      <c r="EE17" t="n">
-        <v>1238</v>
-      </c>
-      <c r="EF17" t="n">
-        <v>1196</v>
-      </c>
-      <c r="EG17" t="n">
-        <v>3394</v>
-      </c>
-      <c r="EH17" t="n">
-        <v>2398</v>
-      </c>
-      <c r="EI17" t="n">
-        <v>4108</v>
-      </c>
-      <c r="EJ17" t="n">
-        <v>3600</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -8352,30 +7928,6 @@
       <c r="EB18" t="n">
         <v>5</v>
       </c>
-      <c r="EC18" t="n">
-        <v>3532</v>
-      </c>
-      <c r="ED18" t="n">
-        <v>3928</v>
-      </c>
-      <c r="EE18" t="n">
-        <v>8464</v>
-      </c>
-      <c r="EF18" t="n">
-        <v>13168</v>
-      </c>
-      <c r="EG18" t="n">
-        <v>5800</v>
-      </c>
-      <c r="EH18" t="n">
-        <v>6404</v>
-      </c>
-      <c r="EI18" t="n">
-        <v>13196</v>
-      </c>
-      <c r="EJ18" t="n">
-        <v>16810</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -8778,30 +8330,6 @@
       <c r="EB19" t="n">
         <v>0</v>
       </c>
-      <c r="EC19" t="n">
-        <v>659</v>
-      </c>
-      <c r="ED19" t="n">
-        <v>502</v>
-      </c>
-      <c r="EE19" t="n">
-        <v>1199</v>
-      </c>
-      <c r="EF19" t="n">
-        <v>1177</v>
-      </c>
-      <c r="EG19" t="n">
-        <v>1344</v>
-      </c>
-      <c r="EH19" t="n">
-        <v>1060</v>
-      </c>
-      <c r="EI19" t="n">
-        <v>3038</v>
-      </c>
-      <c r="EJ19" t="n">
-        <v>2661</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -9204,30 +8732,6 @@
       <c r="EB20" t="n">
         <v>0.8</v>
       </c>
-      <c r="EC20" t="n">
-        <v>1468</v>
-      </c>
-      <c r="ED20" t="n">
-        <v>978</v>
-      </c>
-      <c r="EE20" t="n">
-        <v>1954</v>
-      </c>
-      <c r="EF20" t="n">
-        <v>5290</v>
-      </c>
-      <c r="EG20" t="n">
-        <v>2586</v>
-      </c>
-      <c r="EH20" t="n">
-        <v>2124</v>
-      </c>
-      <c r="EI20" t="n">
-        <v>3130</v>
-      </c>
-      <c r="EJ20" t="n">
-        <v>6492</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -9630,30 +9134,6 @@
       <c r="EB21" t="n">
         <v>16.7</v>
       </c>
-      <c r="EC21" t="n">
-        <v>442</v>
-      </c>
-      <c r="ED21" t="n">
-        <v>658</v>
-      </c>
-      <c r="EE21" t="n">
-        <v>2244</v>
-      </c>
-      <c r="EF21" t="n">
-        <v>1272</v>
-      </c>
-      <c r="EG21" t="n">
-        <v>27422</v>
-      </c>
-      <c r="EH21" t="n">
-        <v>29950</v>
-      </c>
-      <c r="EI21" t="n">
-        <v>41268</v>
-      </c>
-      <c r="EJ21" t="n">
-        <v>30646</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -10056,30 +9536,6 @@
       <c r="EB22" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="EC22" t="n">
-        <v>2538</v>
-      </c>
-      <c r="ED22" t="n">
-        <v>5616</v>
-      </c>
-      <c r="EE22" t="n">
-        <v>3798</v>
-      </c>
-      <c r="EF22" t="n">
-        <v>5256</v>
-      </c>
-      <c r="EG22" t="n">
-        <v>7914</v>
-      </c>
-      <c r="EH22" t="n">
-        <v>8934</v>
-      </c>
-      <c r="EI22" t="n">
-        <v>13370</v>
-      </c>
-      <c r="EJ22" t="n">
-        <v>10948</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -10482,30 +9938,6 @@
       <c r="EB23" t="n">
         <v>0.8</v>
       </c>
-      <c r="EC23" t="n">
-        <v>1372</v>
-      </c>
-      <c r="ED23" t="n">
-        <v>1826</v>
-      </c>
-      <c r="EE23" t="n">
-        <v>1838</v>
-      </c>
-      <c r="EF23" t="n">
-        <v>2534</v>
-      </c>
-      <c r="EG23" t="n">
-        <v>12518</v>
-      </c>
-      <c r="EH23" t="n">
-        <v>9144</v>
-      </c>
-      <c r="EI23" t="n">
-        <v>14464</v>
-      </c>
-      <c r="EJ23" t="n">
-        <v>20408</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -10908,30 +10340,6 @@
       <c r="EB24" t="n">
         <v>0</v>
       </c>
-      <c r="EC24" t="n">
-        <v>717</v>
-      </c>
-      <c r="ED24" t="n">
-        <v>73</v>
-      </c>
-      <c r="EE24" t="n">
-        <v>39</v>
-      </c>
-      <c r="EF24" t="n">
-        <v>2417</v>
-      </c>
-      <c r="EG24" t="n">
-        <v>1381</v>
-      </c>
-      <c r="EH24" t="n">
-        <v>205</v>
-      </c>
-      <c r="EI24" t="n">
-        <v>1161</v>
-      </c>
-      <c r="EJ24" t="n">
-        <v>2852</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -11334,30 +10742,6 @@
       <c r="EB25" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="EC25" t="n">
-        <v>2313</v>
-      </c>
-      <c r="ED25" t="n">
-        <v>2062</v>
-      </c>
-      <c r="EE25" t="n">
-        <v>1716</v>
-      </c>
-      <c r="EF25" t="n">
-        <v>5588</v>
-      </c>
-      <c r="EG25" t="n">
-        <v>12512</v>
-      </c>
-      <c r="EH25" t="n">
-        <v>10035</v>
-      </c>
-      <c r="EI25" t="n">
-        <v>12759</v>
-      </c>
-      <c r="EJ25" t="n">
-        <v>21995</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -11760,30 +11144,6 @@
       <c r="EB26" t="n">
         <v>2.5</v>
       </c>
-      <c r="EC26" t="n">
-        <v>676</v>
-      </c>
-      <c r="ED26" t="n">
-        <v>3462</v>
-      </c>
-      <c r="EE26" t="n">
-        <v>1522</v>
-      </c>
-      <c r="EF26" t="n">
-        <v>2524</v>
-      </c>
-      <c r="EG26" t="n">
-        <v>4974</v>
-      </c>
-      <c r="EH26" t="n">
-        <v>8266</v>
-      </c>
-      <c r="EI26" t="n">
-        <v>5212</v>
-      </c>
-      <c r="EJ26" t="n">
-        <v>7350</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -12186,30 +11546,6 @@
       <c r="EB27" t="n">
         <v>1.7</v>
       </c>
-      <c r="EC27" t="n">
-        <v>1698</v>
-      </c>
-      <c r="ED27" t="n">
-        <v>3866</v>
-      </c>
-      <c r="EE27" t="n">
-        <v>5896</v>
-      </c>
-      <c r="EF27" t="n">
-        <v>3432</v>
-      </c>
-      <c r="EG27" t="n">
-        <v>4510</v>
-      </c>
-      <c r="EH27" t="n">
-        <v>7338</v>
-      </c>
-      <c r="EI27" t="n">
-        <v>10488</v>
-      </c>
-      <c r="EJ27" t="n">
-        <v>9642</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -12610,30 +11946,6 @@
       <c r="EB28" t="n">
         <v>0</v>
       </c>
-      <c r="EC28" t="n">
-        <v>1336</v>
-      </c>
-      <c r="ED28" t="n">
-        <v>1366</v>
-      </c>
-      <c r="EE28" t="n">
-        <v>3156</v>
-      </c>
-      <c r="EF28" t="n">
-        <v>3062</v>
-      </c>
-      <c r="EG28" t="n">
-        <v>3430</v>
-      </c>
-      <c r="EH28" t="n">
-        <v>3238</v>
-      </c>
-      <c r="EI28" t="n">
-        <v>6324</v>
-      </c>
-      <c r="EJ28" t="n">
-        <v>6678</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -13036,30 +12348,6 @@
       <c r="EB29" t="n">
         <v>0</v>
       </c>
-      <c r="EC29" t="n">
-        <v>3370</v>
-      </c>
-      <c r="ED29" t="n">
-        <v>698</v>
-      </c>
-      <c r="EE29" t="n">
-        <v>2084</v>
-      </c>
-      <c r="EF29" t="n">
-        <v>8238</v>
-      </c>
-      <c r="EG29" t="n">
-        <v>4508</v>
-      </c>
-      <c r="EH29" t="n">
-        <v>1844</v>
-      </c>
-      <c r="EI29" t="n">
-        <v>5110</v>
-      </c>
-      <c r="EJ29" t="n">
-        <v>10196</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -13462,30 +12750,6 @@
       <c r="EB30" t="n">
         <v>1.7</v>
       </c>
-      <c r="EC30" t="n">
-        <v>840</v>
-      </c>
-      <c r="ED30" t="n">
-        <v>2944</v>
-      </c>
-      <c r="EE30" t="n">
-        <v>1742</v>
-      </c>
-      <c r="EF30" t="n">
-        <v>1462</v>
-      </c>
-      <c r="EG30" t="n">
-        <v>8438</v>
-      </c>
-      <c r="EH30" t="n">
-        <v>9642</v>
-      </c>
-      <c r="EI30" t="n">
-        <v>11978</v>
-      </c>
-      <c r="EJ30" t="n">
-        <v>10536</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -13888,30 +13152,6 @@
       <c r="EB31" t="n">
         <v>0</v>
       </c>
-      <c r="EC31" t="n">
-        <v>252</v>
-      </c>
-      <c r="ED31" t="n">
-        <v>306</v>
-      </c>
-      <c r="EE31" t="n">
-        <v>221</v>
-      </c>
-      <c r="EF31" t="n">
-        <v>406</v>
-      </c>
-      <c r="EG31" t="n">
-        <v>740</v>
-      </c>
-      <c r="EH31" t="n">
-        <v>714</v>
-      </c>
-      <c r="EI31" t="n">
-        <v>753</v>
-      </c>
-      <c r="EJ31" t="n">
-        <v>1151</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -14314,30 +13554,6 @@
       <c r="EB32" t="n">
         <v>10.8</v>
       </c>
-      <c r="EC32" t="n">
-        <v>3073</v>
-      </c>
-      <c r="ED32" t="n">
-        <v>3461</v>
-      </c>
-      <c r="EE32" t="n">
-        <v>4691</v>
-      </c>
-      <c r="EF32" t="n">
-        <v>4698</v>
-      </c>
-      <c r="EG32" t="n">
-        <v>5026</v>
-      </c>
-      <c r="EH32" t="n">
-        <v>13054</v>
-      </c>
-      <c r="EI32" t="n">
-        <v>16147</v>
-      </c>
-      <c r="EJ32" t="n">
-        <v>16695</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -14740,30 +13956,6 @@
       <c r="EB33" t="n">
         <v>0.8</v>
       </c>
-      <c r="EC33" t="n">
-        <v>1731</v>
-      </c>
-      <c r="ED33" t="n">
-        <v>2901</v>
-      </c>
-      <c r="EE33" t="n">
-        <v>3122</v>
-      </c>
-      <c r="EF33" t="n">
-        <v>3110</v>
-      </c>
-      <c r="EG33" t="n">
-        <v>2941</v>
-      </c>
-      <c r="EH33" t="n">
-        <v>3746</v>
-      </c>
-      <c r="EI33" t="n">
-        <v>4428</v>
-      </c>
-      <c r="EJ33" t="n">
-        <v>5605</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -15166,30 +14358,6 @@
       <c r="EB34" t="n">
         <v>10.8</v>
       </c>
-      <c r="EC34" t="n">
-        <v>7946</v>
-      </c>
-      <c r="ED34" t="n">
-        <v>9290</v>
-      </c>
-      <c r="EE34" t="n">
-        <v>11260</v>
-      </c>
-      <c r="EF34" t="n">
-        <v>7766</v>
-      </c>
-      <c r="EG34" t="n">
-        <v>14294</v>
-      </c>
-      <c r="EH34" t="n">
-        <v>20458</v>
-      </c>
-      <c r="EI34" t="n">
-        <v>20000</v>
-      </c>
-      <c r="EJ34" t="n">
-        <v>14628</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -15592,30 +14760,6 @@
       <c r="EB35" t="n">
         <v>0.8</v>
       </c>
-      <c r="EC35" t="n">
-        <v>5460</v>
-      </c>
-      <c r="ED35" t="n">
-        <v>5362</v>
-      </c>
-      <c r="EE35" t="n">
-        <v>7656</v>
-      </c>
-      <c r="EF35" t="n">
-        <v>4490</v>
-      </c>
-      <c r="EG35" t="n">
-        <v>10244</v>
-      </c>
-      <c r="EH35" t="n">
-        <v>11062</v>
-      </c>
-      <c r="EI35" t="n">
-        <v>15116</v>
-      </c>
-      <c r="EJ35" t="n">
-        <v>12894</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -16018,30 +15162,6 @@
       <c r="EB36" t="n">
         <v>5.8</v>
       </c>
-      <c r="EC36" t="n">
-        <v>2666</v>
-      </c>
-      <c r="ED36" t="n">
-        <v>4318</v>
-      </c>
-      <c r="EE36" t="n">
-        <v>4174</v>
-      </c>
-      <c r="EF36" t="n">
-        <v>3858</v>
-      </c>
-      <c r="EG36" t="n">
-        <v>4414</v>
-      </c>
-      <c r="EH36" t="n">
-        <v>6954</v>
-      </c>
-      <c r="EI36" t="n">
-        <v>6520</v>
-      </c>
-      <c r="EJ36" t="n">
-        <v>7020</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -16444,30 +15564,6 @@
       <c r="EB37" t="n">
         <v>0.8</v>
       </c>
-      <c r="EC37" t="n">
-        <v>918</v>
-      </c>
-      <c r="ED37" t="n">
-        <v>2523</v>
-      </c>
-      <c r="EE37" t="n">
-        <v>1185</v>
-      </c>
-      <c r="EF37" t="n">
-        <v>1190</v>
-      </c>
-      <c r="EG37" t="n">
-        <v>1586</v>
-      </c>
-      <c r="EH37" t="n">
-        <v>3575</v>
-      </c>
-      <c r="EI37" t="n">
-        <v>1837</v>
-      </c>
-      <c r="EJ37" t="n">
-        <v>1969</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -16870,30 +15966,6 @@
       <c r="EB38" t="n">
         <v>7.5</v>
       </c>
-      <c r="EC38" t="n">
-        <v>3209</v>
-      </c>
-      <c r="ED38" t="n">
-        <v>9080</v>
-      </c>
-      <c r="EE38" t="n">
-        <v>17364</v>
-      </c>
-      <c r="EF38" t="n">
-        <v>8804</v>
-      </c>
-      <c r="EG38" t="n">
-        <v>10021</v>
-      </c>
-      <c r="EH38" t="n">
-        <v>13729</v>
-      </c>
-      <c r="EI38" t="n">
-        <v>26720</v>
-      </c>
-      <c r="EJ38" t="n">
-        <v>15771</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -17296,30 +16368,6 @@
       <c r="EB39" t="n">
         <v>0</v>
       </c>
-      <c r="EC39" t="n">
-        <v>554</v>
-      </c>
-      <c r="ED39" t="n">
-        <v>1986</v>
-      </c>
-      <c r="EE39" t="n">
-        <v>1594</v>
-      </c>
-      <c r="EF39" t="n">
-        <v>1656</v>
-      </c>
-      <c r="EG39" t="n">
-        <v>1906</v>
-      </c>
-      <c r="EH39" t="n">
-        <v>3406</v>
-      </c>
-      <c r="EI39" t="n">
-        <v>3378</v>
-      </c>
-      <c r="EJ39" t="n">
-        <v>3408</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -17722,30 +16770,6 @@
       <c r="EB40" t="n">
         <v>1.7</v>
       </c>
-      <c r="EC40" t="n">
-        <v>4660</v>
-      </c>
-      <c r="ED40" t="n">
-        <v>2708</v>
-      </c>
-      <c r="EE40" t="n">
-        <v>3436</v>
-      </c>
-      <c r="EF40" t="n">
-        <v>3084</v>
-      </c>
-      <c r="EG40" t="n">
-        <v>9432</v>
-      </c>
-      <c r="EH40" t="n">
-        <v>13438</v>
-      </c>
-      <c r="EI40" t="n">
-        <v>12306</v>
-      </c>
-      <c r="EJ40" t="n">
-        <v>9576</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -18148,30 +17172,6 @@
       <c r="EB41" t="n">
         <v>5.8</v>
       </c>
-      <c r="EC41" t="n">
-        <v>1982</v>
-      </c>
-      <c r="ED41" t="n">
-        <v>1880</v>
-      </c>
-      <c r="EE41" t="n">
-        <v>3048</v>
-      </c>
-      <c r="EF41" t="n">
-        <v>3016</v>
-      </c>
-      <c r="EG41" t="n">
-        <v>7286</v>
-      </c>
-      <c r="EH41" t="n">
-        <v>6858</v>
-      </c>
-      <c r="EI41" t="n">
-        <v>10136</v>
-      </c>
-      <c r="EJ41" t="n">
-        <v>9002</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -18574,30 +17574,6 @@
       <c r="EB42" t="n">
         <v>6.7</v>
       </c>
-      <c r="EC42" t="n">
-        <v>6484</v>
-      </c>
-      <c r="ED42" t="n">
-        <v>6548</v>
-      </c>
-      <c r="EE42" t="n">
-        <v>6206</v>
-      </c>
-      <c r="EF42" t="n">
-        <v>4362</v>
-      </c>
-      <c r="EG42" t="n">
-        <v>11690</v>
-      </c>
-      <c r="EH42" t="n">
-        <v>10984</v>
-      </c>
-      <c r="EI42" t="n">
-        <v>14030</v>
-      </c>
-      <c r="EJ42" t="n">
-        <v>8042</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -19000,30 +17976,6 @@
       <c r="EB43" t="n">
         <v>5.8</v>
       </c>
-      <c r="EC43" t="n">
-        <v>8932</v>
-      </c>
-      <c r="ED43" t="n">
-        <v>3598</v>
-      </c>
-      <c r="EE43" t="n">
-        <v>4424</v>
-      </c>
-      <c r="EF43" t="n">
-        <v>11508</v>
-      </c>
-      <c r="EG43" t="n">
-        <v>14532</v>
-      </c>
-      <c r="EH43" t="n">
-        <v>10422</v>
-      </c>
-      <c r="EI43" t="n">
-        <v>13414</v>
-      </c>
-      <c r="EJ43" t="n">
-        <v>19228</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -19426,30 +18378,6 @@
       <c r="EB44" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="EC44" t="n">
-        <v>2388</v>
-      </c>
-      <c r="ED44" t="n">
-        <v>2934</v>
-      </c>
-      <c r="EE44" t="n">
-        <v>9470</v>
-      </c>
-      <c r="EF44" t="n">
-        <v>3108</v>
-      </c>
-      <c r="EG44" t="n">
-        <v>3234</v>
-      </c>
-      <c r="EH44" t="n">
-        <v>8546</v>
-      </c>
-      <c r="EI44" t="n">
-        <v>12650</v>
-      </c>
-      <c r="EJ44" t="n">
-        <v>8300</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -19852,30 +18780,6 @@
       <c r="EB45" t="n">
         <v>0</v>
       </c>
-      <c r="EC45" t="n">
-        <v>636</v>
-      </c>
-      <c r="ED45" t="n">
-        <v>1574</v>
-      </c>
-      <c r="EE45" t="n">
-        <v>586</v>
-      </c>
-      <c r="EF45" t="n">
-        <v>1320</v>
-      </c>
-      <c r="EG45" t="n">
-        <v>1132</v>
-      </c>
-      <c r="EH45" t="n">
-        <v>2446</v>
-      </c>
-      <c r="EI45" t="n">
-        <v>1550</v>
-      </c>
-      <c r="EJ45" t="n">
-        <v>2082</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -20278,30 +19182,6 @@
       <c r="EB46" t="n">
         <v>1.7</v>
       </c>
-      <c r="EC46" t="n">
-        <v>13758</v>
-      </c>
-      <c r="ED46" t="n">
-        <v>15652</v>
-      </c>
-      <c r="EE46" t="n">
-        <v>11652</v>
-      </c>
-      <c r="EF46" t="n">
-        <v>13242</v>
-      </c>
-      <c r="EG46" t="n">
-        <v>18062</v>
-      </c>
-      <c r="EH46" t="n">
-        <v>22418</v>
-      </c>
-      <c r="EI46" t="n">
-        <v>20418</v>
-      </c>
-      <c r="EJ46" t="n">
-        <v>19924</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -20704,30 +19584,6 @@
       <c r="EB47" t="n">
         <v>2.5</v>
       </c>
-      <c r="EC47" t="n">
-        <v>6582</v>
-      </c>
-      <c r="ED47" t="n">
-        <v>8802</v>
-      </c>
-      <c r="EE47" t="n">
-        <v>11846</v>
-      </c>
-      <c r="EF47" t="n">
-        <v>9384</v>
-      </c>
-      <c r="EG47" t="n">
-        <v>7492</v>
-      </c>
-      <c r="EH47" t="n">
-        <v>10012</v>
-      </c>
-      <c r="EI47" t="n">
-        <v>15350</v>
-      </c>
-      <c r="EJ47" t="n">
-        <v>12798</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -21130,30 +19986,6 @@
       <c r="EB48" t="n">
         <v>3.3</v>
       </c>
-      <c r="EC48" t="n">
-        <v>1178</v>
-      </c>
-      <c r="ED48" t="n">
-        <v>438</v>
-      </c>
-      <c r="EE48" t="n">
-        <v>2018</v>
-      </c>
-      <c r="EF48" t="n">
-        <v>864</v>
-      </c>
-      <c r="EG48" t="n">
-        <v>2156</v>
-      </c>
-      <c r="EH48" t="n">
-        <v>5496</v>
-      </c>
-      <c r="EI48" t="n">
-        <v>4636</v>
-      </c>
-      <c r="EJ48" t="n">
-        <v>4456</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -21556,30 +20388,6 @@
       <c r="EB49" t="n">
         <v>5</v>
       </c>
-      <c r="EC49" t="n">
-        <v>7630</v>
-      </c>
-      <c r="ED49" t="n">
-        <v>4324</v>
-      </c>
-      <c r="EE49" t="n">
-        <v>9756</v>
-      </c>
-      <c r="EF49" t="n">
-        <v>13742</v>
-      </c>
-      <c r="EG49" t="n">
-        <v>10154</v>
-      </c>
-      <c r="EH49" t="n">
-        <v>7388</v>
-      </c>
-      <c r="EI49" t="n">
-        <v>14340</v>
-      </c>
-      <c r="EJ49" t="n">
-        <v>17462</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -21982,30 +20790,6 @@
       <c r="EB50" t="n">
         <v>0</v>
       </c>
-      <c r="EC50" t="n">
-        <v>868</v>
-      </c>
-      <c r="ED50" t="n">
-        <v>3232</v>
-      </c>
-      <c r="EE50" t="n">
-        <v>2028</v>
-      </c>
-      <c r="EF50" t="n">
-        <v>4358</v>
-      </c>
-      <c r="EG50" t="n">
-        <v>2136</v>
-      </c>
-      <c r="EH50" t="n">
-        <v>5408</v>
-      </c>
-      <c r="EI50" t="n">
-        <v>4454</v>
-      </c>
-      <c r="EJ50" t="n">
-        <v>9130</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -22408,30 +21192,6 @@
       <c r="EB51" t="n">
         <v>0.8</v>
       </c>
-      <c r="EC51" t="n">
-        <v>9062</v>
-      </c>
-      <c r="ED51" t="n">
-        <v>1733</v>
-      </c>
-      <c r="EE51" t="n">
-        <v>1930</v>
-      </c>
-      <c r="EF51" t="n">
-        <v>3902</v>
-      </c>
-      <c r="EG51" t="n">
-        <v>11675</v>
-      </c>
-      <c r="EH51" t="n">
-        <v>3973</v>
-      </c>
-      <c r="EI51" t="n">
-        <v>6356</v>
-      </c>
-      <c r="EJ51" t="n">
-        <v>7074</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -22834,30 +21594,6 @@
       <c r="EB52" t="n">
         <v>18.3</v>
       </c>
-      <c r="EC52" t="n">
-        <v>1843</v>
-      </c>
-      <c r="ED52" t="n">
-        <v>2945</v>
-      </c>
-      <c r="EE52" t="n">
-        <v>6709</v>
-      </c>
-      <c r="EF52" t="n">
-        <v>3212</v>
-      </c>
-      <c r="EG52" t="n">
-        <v>5346</v>
-      </c>
-      <c r="EH52" t="n">
-        <v>6309</v>
-      </c>
-      <c r="EI52" t="n">
-        <v>13642</v>
-      </c>
-      <c r="EJ52" t="n">
-        <v>9385</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -23260,30 +21996,6 @@
       <c r="EB53" t="n">
         <v>10.8</v>
       </c>
-      <c r="EC53" t="n">
-        <v>3638</v>
-      </c>
-      <c r="ED53" t="n">
-        <v>4090</v>
-      </c>
-      <c r="EE53" t="n">
-        <v>5166</v>
-      </c>
-      <c r="EF53" t="n">
-        <v>6358</v>
-      </c>
-      <c r="EG53" t="n">
-        <v>9142</v>
-      </c>
-      <c r="EH53" t="n">
-        <v>13568</v>
-      </c>
-      <c r="EI53" t="n">
-        <v>14226</v>
-      </c>
-      <c r="EJ53" t="n">
-        <v>14080</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -23686,30 +22398,6 @@
       <c r="EB54" t="n">
         <v>7.5</v>
       </c>
-      <c r="EC54" t="n">
-        <v>4013</v>
-      </c>
-      <c r="ED54" t="n">
-        <v>3616</v>
-      </c>
-      <c r="EE54" t="n">
-        <v>5827</v>
-      </c>
-      <c r="EF54" t="n">
-        <v>16594</v>
-      </c>
-      <c r="EG54" t="n">
-        <v>6108</v>
-      </c>
-      <c r="EH54" t="n">
-        <v>6500</v>
-      </c>
-      <c r="EI54" t="n">
-        <v>10004</v>
-      </c>
-      <c r="EJ54" t="n">
-        <v>24057</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -24112,30 +22800,6 @@
       <c r="EB55" t="n">
         <v>0.8</v>
       </c>
-      <c r="EC55" t="n">
-        <v>1744</v>
-      </c>
-      <c r="ED55" t="n">
-        <v>1100</v>
-      </c>
-      <c r="EE55" t="n">
-        <v>3776</v>
-      </c>
-      <c r="EF55" t="n">
-        <v>2664</v>
-      </c>
-      <c r="EG55" t="n">
-        <v>6442</v>
-      </c>
-      <c r="EH55" t="n">
-        <v>2100</v>
-      </c>
-      <c r="EI55" t="n">
-        <v>5346</v>
-      </c>
-      <c r="EJ55" t="n">
-        <v>5272</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -24538,14 +23202,6 @@
       <c r="EB56" t="n">
         <v>17.5</v>
       </c>
-      <c r="EC56" t="inlineStr"/>
-      <c r="ED56" t="inlineStr"/>
-      <c r="EE56" t="inlineStr"/>
-      <c r="EF56" t="inlineStr"/>
-      <c r="EG56" t="inlineStr"/>
-      <c r="EH56" t="inlineStr"/>
-      <c r="EI56" t="inlineStr"/>
-      <c r="EJ56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -24948,30 +23604,6 @@
       <c r="EB57" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="EC57" t="n">
-        <v>10054</v>
-      </c>
-      <c r="ED57" t="n">
-        <v>10010</v>
-      </c>
-      <c r="EE57" t="n">
-        <v>15238</v>
-      </c>
-      <c r="EF57" t="n">
-        <v>15886</v>
-      </c>
-      <c r="EG57" t="n">
-        <v>14182</v>
-      </c>
-      <c r="EH57" t="n">
-        <v>13038</v>
-      </c>
-      <c r="EI57" t="n">
-        <v>22536</v>
-      </c>
-      <c r="EJ57" t="n">
-        <v>23314</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -25374,30 +24006,6 @@
       <c r="EB58" t="n">
         <v>1.7</v>
       </c>
-      <c r="EC58" t="n">
-        <v>1216</v>
-      </c>
-      <c r="ED58" t="n">
-        <v>786</v>
-      </c>
-      <c r="EE58" t="n">
-        <v>4628</v>
-      </c>
-      <c r="EF58" t="n">
-        <v>1466</v>
-      </c>
-      <c r="EG58" t="n">
-        <v>3622</v>
-      </c>
-      <c r="EH58" t="n">
-        <v>3894</v>
-      </c>
-      <c r="EI58" t="n">
-        <v>10086</v>
-      </c>
-      <c r="EJ58" t="n">
-        <v>5224</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -25800,30 +24408,6 @@
       <c r="EB59" t="n">
         <v>0</v>
       </c>
-      <c r="EC59" t="n">
-        <v>3048</v>
-      </c>
-      <c r="ED59" t="n">
-        <v>3568</v>
-      </c>
-      <c r="EE59" t="n">
-        <v>5468</v>
-      </c>
-      <c r="EF59" t="n">
-        <v>4796</v>
-      </c>
-      <c r="EG59" t="n">
-        <v>6164</v>
-      </c>
-      <c r="EH59" t="n">
-        <v>6106</v>
-      </c>
-      <c r="EI59" t="n">
-        <v>10288</v>
-      </c>
-      <c r="EJ59" t="n">
-        <v>9650</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -26226,30 +24810,6 @@
       <c r="EB60" t="n">
         <v>7.5</v>
       </c>
-      <c r="EC60" t="n">
-        <v>3038</v>
-      </c>
-      <c r="ED60" t="n">
-        <v>5912</v>
-      </c>
-      <c r="EE60" t="n">
-        <v>7032</v>
-      </c>
-      <c r="EF60" t="n">
-        <v>3920</v>
-      </c>
-      <c r="EG60" t="n">
-        <v>4812</v>
-      </c>
-      <c r="EH60" t="n">
-        <v>8146</v>
-      </c>
-      <c r="EI60" t="n">
-        <v>10424</v>
-      </c>
-      <c r="EJ60" t="n">
-        <v>8222</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -26652,30 +25212,6 @@
       <c r="EB61" t="n">
         <v>15</v>
       </c>
-      <c r="EC61" t="n">
-        <v>3246</v>
-      </c>
-      <c r="ED61" t="n">
-        <v>6126</v>
-      </c>
-      <c r="EE61" t="n">
-        <v>3078</v>
-      </c>
-      <c r="EF61" t="n">
-        <v>7644</v>
-      </c>
-      <c r="EG61" t="n">
-        <v>5614</v>
-      </c>
-      <c r="EH61" t="n">
-        <v>8424</v>
-      </c>
-      <c r="EI61" t="n">
-        <v>4162</v>
-      </c>
-      <c r="EJ61" t="n">
-        <v>11866</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -27077,30 +25613,6 @@
       </c>
       <c r="EB62" t="n">
         <v>0.8</v>
-      </c>
-      <c r="EC62" t="n">
-        <v>1806</v>
-      </c>
-      <c r="ED62" t="n">
-        <v>4886</v>
-      </c>
-      <c r="EE62" t="n">
-        <v>4008</v>
-      </c>
-      <c r="EF62" t="n">
-        <v>3170</v>
-      </c>
-      <c r="EG62" t="n">
-        <v>4190</v>
-      </c>
-      <c r="EH62" t="n">
-        <v>9302</v>
-      </c>
-      <c r="EI62" t="n">
-        <v>7028</v>
-      </c>
-      <c r="EJ62" t="n">
-        <v>7890</v>
       </c>
     </row>
   </sheetData>
